--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N2">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O2">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P2">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q2">
-        <v>3.157921937676</v>
+        <v>2.883149659926444</v>
       </c>
       <c r="R2">
-        <v>28.421297439084</v>
+        <v>25.94834693933799</v>
       </c>
       <c r="S2">
-        <v>0.007154932563684429</v>
+        <v>0.003710078983669699</v>
       </c>
       <c r="T2">
-        <v>0.007154932563684427</v>
+        <v>0.0037100789836697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.921196</v>
       </c>
       <c r="O3">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P3">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q3">
-        <v>257.7631310116604</v>
+        <v>526.1616094441662</v>
       </c>
       <c r="R3">
-        <v>2319.868179104944</v>
+        <v>4735.454484997495</v>
       </c>
       <c r="S3">
-        <v>0.584016279119882</v>
+        <v>0.6770724240733407</v>
       </c>
       <c r="T3">
-        <v>0.5840162791198817</v>
+        <v>0.6770724240733409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.387238</v>
       </c>
       <c r="O4">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P4">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q4">
-        <v>65.53644303482578</v>
+        <v>133.7769300408209</v>
       </c>
       <c r="R4">
-        <v>589.827987313432</v>
+        <v>1203.992370367388</v>
       </c>
       <c r="S4">
-        <v>0.1484865172832636</v>
+        <v>0.172146102418063</v>
       </c>
       <c r="T4">
-        <v>0.1484865172832635</v>
+        <v>0.1721461024180631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N5">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O5">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P5">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q5">
-        <v>0.350872352556</v>
+        <v>0.1569338344324444</v>
       </c>
       <c r="R5">
-        <v>3.157851173004</v>
+        <v>1.412404509892</v>
       </c>
       <c r="S5">
-        <v>0.0007949746923912277</v>
+        <v>0.00020194474433539</v>
       </c>
       <c r="T5">
-        <v>0.0007949746923912276</v>
+        <v>0.0002019447443353901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>36.921196</v>
       </c>
       <c r="O6">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P6">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q6">
         <v>28.63970609951823</v>
@@ -818,10 +818,10 @@
         <v>257.757354895664</v>
       </c>
       <c r="S6">
-        <v>0.06488924356901524</v>
+        <v>0.03685399102764936</v>
       </c>
       <c r="T6">
-        <v>0.06488924356901522</v>
+        <v>0.03685399102764937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.387238</v>
       </c>
       <c r="O7">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P7">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q7">
         <v>7.28166382817689</v>
@@ -880,10 +880,10 @@
         <v>65.534974453592</v>
       </c>
       <c r="S7">
-        <v>0.01649813221170613</v>
+        <v>0.009370151092245472</v>
       </c>
       <c r="T7">
-        <v>0.01649813221170612</v>
+        <v>0.009370151092245474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N8">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O8">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P8">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q8">
-        <v>0.760642523586</v>
+        <v>0.3402107546779999</v>
       </c>
       <c r="R8">
-        <v>6.845782712274</v>
+        <v>3.061896792101999</v>
       </c>
       <c r="S8">
-        <v>0.001723394709792523</v>
+        <v>0.0004377881552570731</v>
       </c>
       <c r="T8">
-        <v>0.001723394709792523</v>
+        <v>0.0004377881552570732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>36.921196</v>
       </c>
       <c r="O9">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P9">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q9">
         <v>62.086904720776</v>
       </c>
       <c r="R9">
-        <v>558.7821424869841</v>
+        <v>558.782142486984</v>
       </c>
       <c r="S9">
-        <v>0.1406708668333872</v>
+        <v>0.07989433346707739</v>
       </c>
       <c r="T9">
-        <v>0.1406708668333872</v>
+        <v>0.0798943334670774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.387238</v>
       </c>
       <c r="O10">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P10">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q10">
         <v>15.785635744228</v>
@@ -1066,10 +1066,10 @@
         <v>142.070721698052</v>
       </c>
       <c r="S10">
-        <v>0.03576565901687779</v>
+        <v>0.02031318603836183</v>
       </c>
       <c r="T10">
-        <v>0.03576565901687779</v>
+        <v>0.02031318603836183</v>
       </c>
     </row>
   </sheetData>
